--- a/25-26/Invoices 25-26/09 BK009 June 25-26 AA Stone Investment Trading Company (VK)(Nam vu) TG Red/Invoice template, PO, Packing List, Proforma invoice.xlsx
+++ b/25-26/Invoices 25-26/09 BK009 June 25-26 AA Stone Investment Trading Company (VK)(Nam vu) TG Red/Invoice template, PO, Packing List, Proforma invoice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\25-26\Invoices 25-26\08 BK008 June 25-26 AA Stone Investment Trading Company (VK)(Nam vu) Absolute Short\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\25-26\Invoices 25-26\09 BK009 June 25-26 AA Stone Investment Trading Company (VK)(Nam vu) TG Red\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D15E8DA-5A5A-458D-BA6C-8A5D1DE25190}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C28D13-96AD-45C8-BE7F-41CAA3CD9B64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -603,25 +603,25 @@
     <t>Round Off</t>
   </si>
   <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>TCLU2387129</t>
-  </si>
-  <si>
-    <t>Eight Thousand Six Hundred Fifteen Dollars Only</t>
-  </si>
-  <si>
-    <t>J V R Granites</t>
-  </si>
-  <si>
     <t>PO009/25-26</t>
   </si>
   <si>
-    <t>SY NO: 133/A1, 133/AA2, 133/E1, 133/E3
-GURRALAPADU VILLAGE, KHAMMAM RURAL MANDAL
-KHAMMAM, DIST- TELANGANA. CODE: 36
-GSTIN/UIN: 36AAIFJ4248F1ZC</t>
+    <t>09</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KKTU8062362</t>
+  </si>
+  <si>
+    <t>Six Thousand Five Hundred Seventy Five Dollars and Fifty Cent Only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SY NO: 83/2, 84/2 Haragadde Village,
+ Jigani, Hobli, Anekal Taluk: Bangalore-560105.
+ GSTIN: 29AAVFB1496L1ZL</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BHAGWATI STONEX</t>
   </si>
 </sst>
 </file>
@@ -1347,6 +1347,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1408,6 +1409,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1443,7 +1447,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1468,9 +1472,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1616,7 +1617,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3093,8 +3093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3142,7 +3142,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="B3" s="6" t="str">
         <f>"BK0" &amp; B2 &amp; "/" &amp; B1</f>
-        <v>BK008/25-26</v>
+        <v>BK009/25-26</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -3207,7 +3207,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="7">
-        <v>45836</v>
+        <v>45837</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -3300,10 +3300,10 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="78" t="s">
         <v>148</v>
       </c>
       <c r="C7" s="11"/>
@@ -3332,8 +3332,8 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
-      <c r="B8" s="76"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -3360,8 +3360,8 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
-      <c r="B9" s="76"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -3388,8 +3388,8 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="76"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -3416,8 +3416,8 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -3444,8 +3444,8 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="76"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
@@ -3828,7 +3828,7 @@
         <v>34</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -3860,7 +3860,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="15">
-        <v>528</v>
+        <v>155</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -3892,7 +3892,7 @@
         <v>36</v>
       </c>
       <c r="B26" s="15">
-        <v>478.62</v>
+        <v>543.41999999999996</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -3924,7 +3924,7 @@
         <v>37</v>
       </c>
       <c r="B27" s="15">
-        <v>18</v>
+        <v>12.1</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -31302,8 +31302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J998"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31322,30 +31322,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -31354,16 +31354,16 @@
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="94" t="s">
+      <c r="F3" s="86"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="85"/>
-      <c r="J3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="87"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -31372,18 +31372,18 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="20"/>
-      <c r="E4" s="105" t="str">
+      <c r="E4" s="107" t="str">
         <f>'input data'!B3</f>
-        <v>BK008/25-26</v>
+        <v>BK009/25-26</v>
       </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="106">
+      <c r="F4" s="82"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="108">
         <f>'input data'!B4</f>
-        <v>45836</v>
+        <v>45837</v>
       </c>
-      <c r="I4" s="107"/>
-      <c r="J4" s="108"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="110"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
@@ -31392,16 +31392,16 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="94" t="s">
+      <c r="E5" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="94" t="s">
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="I5" s="85"/>
-      <c r="J5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
@@ -31410,15 +31410,15 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="112" t="str">
+      <c r="E6" s="79"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="114" t="str">
         <f>'input data'!B5</f>
         <v>AD2403250650768</v>
       </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="79"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
@@ -31427,16 +31427,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="94" t="s">
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="85"/>
-      <c r="J7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="87"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
@@ -31445,16 +31445,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="81"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="80" t="s">
+      <c r="F8" s="82"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="81"/>
-      <c r="J8" s="79"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="80"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -31463,16 +31463,16 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="94" t="s">
+      <c r="E9" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="85"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="94" t="s">
+      <c r="F9" s="86"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="85"/>
-      <c r="J9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="87"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -31481,69 +31481,69 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="99" t="str">
+      <c r="E10" s="100" t="str">
         <f>'input data'!B14</f>
         <v>Loose packing</v>
       </c>
-      <c r="F10" s="76"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="99" t="str">
+      <c r="F10" s="77"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="100" t="str">
         <f>'input data'!B13 &amp; " " &amp; 'input data'!B15</f>
         <v>1 FCL</v>
       </c>
-      <c r="I10" s="76"/>
-      <c r="J10" s="88"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="89"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="109" t="s">
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="114" t="s">
+      <c r="F11" s="93"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="92"/>
-      <c r="J11" s="93"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="94"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="110" t="str">
+      <c r="A12" s="112" t="str">
         <f>'input data'!B6</f>
         <v>To the Order</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="111" t="str">
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="113" t="str">
         <f>'input data'!B16</f>
         <v>CNF</v>
       </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="115" t="str">
+      <c r="F12" s="77"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="117" t="str">
         <f>'input data'!B17</f>
         <v>100% Against Documents</v>
       </c>
-      <c r="I12" s="76"/>
-      <c r="J12" s="88"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="89"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="79"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="80"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -31552,17 +31552,17 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="116" t="s">
+      <c r="E14" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="87"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="120" t="str">
+      <c r="A15" s="122" t="str">
         <f>'input data'!B7</f>
         <v>A-A STONE INVESTMENT TRADING COMPANY LIMITED
  34/5 TRAN KHANH DU STREET, TAN DINH WARD, 
@@ -31571,250 +31571,250 @@
  TEL: 0962147396
  MAIL: AASTONEDOCS@GMAIL.COM</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="88"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="89"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="87"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="88"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="89"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="88"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="89"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="88"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="89"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="87"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="88"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="89"/>
     </row>
     <row r="20" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="79"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="113" t="s">
+      <c r="A21" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="113" t="s">
+      <c r="B21" s="87"/>
+      <c r="C21" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="113" t="s">
+      <c r="D21" s="87"/>
+      <c r="E21" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="85"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="113" t="s">
+      <c r="F21" s="86"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="85"/>
-      <c r="J21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="87"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="121" t="s">
+      <c r="A22" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="123" t="str">
+      <c r="B22" s="89"/>
+      <c r="C22" s="125" t="str">
         <f>'input data'!B19</f>
         <v>CHENNAI</v>
       </c>
-      <c r="D22" s="88"/>
-      <c r="E22" s="124" t="s">
+      <c r="D22" s="89"/>
+      <c r="E22" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="76"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="124" t="str">
+      <c r="F22" s="77"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="126" t="str">
         <f>'input data'!B23</f>
         <v>VIETNAM</v>
       </c>
-      <c r="I22" s="76"/>
-      <c r="J22" s="88"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="89"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="125"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="81"/>
-      <c r="J23" s="79"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="91"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="80"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="122" t="s">
+      <c r="B24" s="87"/>
+      <c r="C24" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="86"/>
-      <c r="E24" s="94" t="s">
+      <c r="D24" s="87"/>
+      <c r="E24" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="85"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="122" t="s">
+      <c r="F24" s="86"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="85"/>
-      <c r="J24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="87"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="78"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="80" t="str">
+      <c r="A25" s="79"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81" t="str">
         <f>'input data'!B20</f>
         <v>CHENNAI</v>
       </c>
-      <c r="D25" s="79"/>
-      <c r="E25" s="80" t="str">
+      <c r="D25" s="80"/>
+      <c r="E25" s="81" t="str">
         <f>'input data'!B21</f>
         <v>DA NANG</v>
       </c>
-      <c r="F25" s="81"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="80" t="str">
+      <c r="F25" s="82"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="81" t="str">
         <f>'input data'!B22</f>
         <v>DA NANG</v>
       </c>
-      <c r="I25" s="81"/>
-      <c r="J25" s="79"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="80"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="85"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="82" t="s">
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="94" t="s">
+      <c r="F26" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="86"/>
+      <c r="G26" s="87"/>
       <c r="H26" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="94" t="s">
+      <c r="I26" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="86"/>
+      <c r="J26" s="87"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="80" t="s">
+      <c r="A27" s="84"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="79"/>
+      <c r="G27" s="80"/>
       <c r="H27" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I27" s="80" t="s">
+      <c r="I27" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="79"/>
+      <c r="J27" s="80"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="27">
         <v>1</v>
       </c>
-      <c r="B28" s="91" t="str">
+      <c r="B28" s="92" t="str">
         <f>'input data'!B18</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="94"/>
       <c r="E28" s="28">
         <v>68022390</v>
       </c>
-      <c r="F28" s="95">
+      <c r="F28" s="96">
         <f>'input data'!B26</f>
-        <v>478.62</v>
+        <v>543.41999999999996</v>
       </c>
-      <c r="G28" s="93"/>
+      <c r="G28" s="94"/>
       <c r="H28" s="73">
         <f>'input data'!B27</f>
-        <v>18</v>
+        <v>12.1</v>
       </c>
-      <c r="I28" s="126">
+      <c r="I28" s="119">
         <f>H28*F28</f>
-        <v>8615.16</v>
+        <v>6575.3819999999996</v>
       </c>
-      <c r="J28" s="93"/>
+      <c r="J28" s="94"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="29"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="79"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="80"/>
       <c r="E29" s="29"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="180"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="75"/>
       <c r="I29" s="72"/>
       <c r="J29" s="30"/>
     </row>
@@ -31834,21 +31834,21 @@
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="71"/>
-      <c r="H30" s="118" t="s">
+      <c r="H30" s="120" t="s">
         <v>155</v>
       </c>
       <c r="I30" s="71"/>
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="99" t="str">
+      <c r="A31" s="100" t="str">
         <f>UPPER('input data'!B24)</f>
-        <v>TCLU2387129</v>
+        <v xml:space="preserve"> KKTU8062362</v>
       </c>
-      <c r="B31" s="76"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="3">
         <f>'input data'!B25</f>
-        <v>528</v>
+        <v>155</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>76</v>
@@ -31858,7 +31858,7 @@
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="71"/>
-      <c r="H31" s="118"/>
+      <c r="H31" s="120"/>
       <c r="I31" s="71"/>
       <c r="J31" s="20"/>
     </row>
@@ -31868,9 +31868,9 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="118"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="120"/>
       <c r="I32" s="71"/>
       <c r="J32" s="20"/>
     </row>
@@ -31882,11 +31882,11 @@
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
       <c r="G33" s="72"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="117">
-        <v>-0.16</v>
+      <c r="H33" s="121"/>
+      <c r="I33" s="105">
+        <v>0.12</v>
       </c>
-      <c r="J33" s="93"/>
+      <c r="J33" s="94"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
@@ -31899,15 +31899,15 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="102">
+      <c r="I34" s="103">
         <f>SUM(I28:J33)</f>
-        <v>8615</v>
+        <v>6575.5019999999995</v>
       </c>
-      <c r="J34" s="86"/>
+      <c r="J34" s="87"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -31916,32 +31916,32 @@
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
       <c r="H35" s="30"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="79"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="80"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="100" t="s">
+      <c r="A36" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="103" t="s">
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="87"/>
     </row>
     <row r="37" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="101" t="s">
+      <c r="A37" s="102" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="88"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="89"/>
       <c r="E37" s="19" t="s">
         <v>82</v>
       </c>
@@ -31952,10 +31952,10 @@
       <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="87"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="88"/>
+      <c r="A38" s="88"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="89"/>
       <c r="E38" s="19"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -31964,12 +31964,12 @@
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="88"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="89"/>
       <c r="E39" s="19"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -31978,10 +31978,10 @@
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="90"/>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="79"/>
+      <c r="A40" s="91"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="80"/>
       <c r="E40" s="31" t="s">
         <v>84</v>
       </c>
@@ -32951,7 +32951,6 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="I28:J28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="H30:H33"/>
     <mergeCell ref="A15:D20"/>
@@ -33007,6 +33006,7 @@
     <mergeCell ref="I34:J35"/>
     <mergeCell ref="E36:J36"/>
     <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:G25"/>
@@ -33029,7 +33029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -33042,56 +33042,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="94" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="127" t="s">
+      <c r="H2" s="87"/>
+      <c r="I2" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="86"/>
+      <c r="J2" s="87"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="136" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="105" t="str">
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="107" t="str">
         <f>Invoice!E4</f>
-        <v>BK008/25-26</v>
+        <v>BK009/25-26</v>
       </c>
-      <c r="H3" s="79"/>
-      <c r="I3" s="106">
+      <c r="H3" s="80"/>
+      <c r="I3" s="108">
         <f>Invoice!H4</f>
-        <v>45836</v>
+        <v>45837</v>
       </c>
-      <c r="J3" s="108"/>
+      <c r="J3" s="110"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -33102,12 +33102,12 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="127" t="s">
+      <c r="G4" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -33118,22 +33118,22 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="80" t="str">
+      <c r="G5" s="81" t="str">
         <f>'input data'!B5</f>
         <v>AD2403250650768</v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="79"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="20"/>
       <c r="G6" s="24"/>
       <c r="H6" s="32"/>
@@ -33203,13 +33203,13 @@
       <c r="J10" s="30"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="131" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
       <c r="F11" s="18"/>
       <c r="G11" s="36" t="s">
         <v>96</v>
@@ -33219,14 +33219,14 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="131" t="str">
+      <c r="A12" s="132" t="str">
         <f>'input data'!B6</f>
         <v>To the Order</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
       <c r="F12" s="20"/>
       <c r="G12" s="19"/>
       <c r="H12" s="4"/>
@@ -33234,11 +33234,11 @@
       <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="90"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
       <c r="F13" s="30"/>
       <c r="G13" s="19"/>
       <c r="H13" s="4"/>
@@ -33246,21 +33246,21 @@
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="130" t="s">
+      <c r="A14" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="86"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="87"/>
       <c r="G14" s="19"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="120" t="str">
+      <c r="A15" s="122" t="str">
         <f>Invoice!A15</f>
         <v>A-A STONE INVESTMENT TRADING COMPANY LIMITED
  34/5 TRAN KHANH DU STREET, TAN DINH WARD, 
@@ -33269,190 +33269,190 @@
  TEL: 0962147396
  MAIL: AASTONEDOCS@GMAIL.COM</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="88"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="19"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="87"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="88"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="89"/>
       <c r="G16" s="19"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="88"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="89"/>
       <c r="G17" s="19"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="128" t="s">
+      <c r="A18" s="88"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="129" t="s">
         <v>97</v>
       </c>
-      <c r="H18" s="86"/>
-      <c r="I18" s="137" t="s">
+      <c r="H18" s="87"/>
+      <c r="I18" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="J18" s="86"/>
+      <c r="J18" s="87"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="79"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="90"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="138" t="s">
+      <c r="A20" s="91"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="H20" s="79"/>
-      <c r="I20" s="138" t="str">
+      <c r="H20" s="80"/>
+      <c r="I20" s="139" t="str">
         <f>Invoice!H22</f>
         <v>VIETNAM</v>
       </c>
-      <c r="J20" s="79"/>
+      <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="132" t="s">
+      <c r="A21" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="132" t="s">
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="E21" s="85"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="133" t="s">
+      <c r="E21" s="86"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="92"/>
-      <c r="I21" s="92"/>
-      <c r="J21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="94"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
-      <c r="B22" s="81"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="80" t="str">
+      <c r="A22" s="79"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="81" t="str">
         <f>Invoice!C22</f>
         <v>CHENNAI</v>
       </c>
-      <c r="E22" s="81"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="136" t="str">
+      <c r="E22" s="82"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="137" t="str">
         <f>'input data'!B16</f>
         <v>CNF</v>
       </c>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="79"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="80"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="132" t="s">
+      <c r="A23" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="132" t="s">
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="133" t="s">
         <v>103</v>
       </c>
-      <c r="E23" s="85"/>
-      <c r="F23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="87"/>
       <c r="G23" s="43"/>
       <c r="H23" s="44"/>
       <c r="I23" s="44"/>
       <c r="J23" s="45"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="78"/>
-      <c r="B24" s="81"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="80" t="str">
+      <c r="A24" s="79"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="81" t="str">
         <f>Invoice!C25</f>
         <v>CHENNAI</v>
       </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="79"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="80"/>
       <c r="G24" s="31"/>
       <c r="H24" s="33"/>
       <c r="I24" s="33"/>
       <c r="J24" s="30"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="132" t="s">
+      <c r="A25" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="132" t="s">
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="85"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="139" t="s">
+      <c r="E25" s="86"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="140" t="s">
         <v>104</v>
       </c>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="94"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="125" t="str">
+      <c r="A26" s="127" t="str">
         <f>Invoice!E25</f>
         <v>DA NANG</v>
       </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="125" t="str">
+      <c r="B26" s="77"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="127" t="str">
         <f>Invoice!H25</f>
         <v>DA NANG</v>
       </c>
-      <c r="E26" s="76"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="128" t="str">
+      <c r="E26" s="77"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="129" t="str">
         <f>'input data'!B17</f>
         <v>100% Against Documents</v>
       </c>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="87"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
@@ -33470,44 +33470,44 @@
       <c r="A28" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="80" t="s">
+      <c r="C28" s="80"/>
+      <c r="D28" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
       <c r="G28" s="49"/>
       <c r="H28" s="50"/>
-      <c r="I28" s="80" t="s">
+      <c r="I28" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="J28" s="79"/>
+      <c r="J28" s="80"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>1</v>
       </c>
-      <c r="B29" s="91">
+      <c r="B29" s="92">
         <f>Invoice!E28</f>
         <v>68022390</v>
       </c>
-      <c r="C29" s="93"/>
-      <c r="D29" s="148" t="str">
+      <c r="C29" s="94"/>
+      <c r="D29" s="149" t="str">
         <f>Invoice!B28</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="149">
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="94"/>
+      <c r="I29" s="150">
         <f>Invoice!F28</f>
-        <v>478.62</v>
+        <v>543.41999999999996</v>
       </c>
-      <c r="J29" s="93"/>
+      <c r="J29" s="94"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
@@ -33520,11 +33520,11 @@
       <c r="F30" s="47"/>
       <c r="G30" s="47"/>
       <c r="H30" s="47"/>
-      <c r="I30" s="150">
+      <c r="I30" s="151">
         <f>SUM(I29:J29)</f>
-        <v>478.62</v>
+        <v>543.41999999999996</v>
       </c>
-      <c r="J30" s="93"/>
+      <c r="J30" s="94"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
@@ -33539,17 +33539,17 @@
       <c r="J31" s="35"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="125" t="s">
+      <c r="A32" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="76"/>
+      <c r="B32" s="77"/>
       <c r="C32" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="97" t="s">
+      <c r="D32" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="76"/>
+      <c r="E32" s="77"/>
       <c r="F32" s="32" t="s">
         <v>75</v>
       </c>
@@ -33559,19 +33559,19 @@
       <c r="J32" s="35"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="99" t="str">
+      <c r="A33" s="100" t="str">
         <f>Invoice!A31</f>
-        <v>TCLU2387129</v>
+        <v xml:space="preserve"> KKTU8062362</v>
       </c>
-      <c r="B33" s="76"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="52">
         <f>'input data'!B25</f>
-        <v>528</v>
+        <v>155</v>
       </c>
-      <c r="D33" s="146" t="s">
+      <c r="D33" s="147" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="76"/>
+      <c r="E33" s="77"/>
       <c r="F33" s="52" t="s">
         <v>109</v>
       </c>
@@ -33636,64 +33636,64 @@
       <c r="J37" s="57"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="103" t="s">
+      <c r="A38" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="103" t="s">
+      <c r="B38" s="86"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
+      <c r="J38" s="87"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="147" t="s">
+      <c r="A39" s="148" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="76"/>
-      <c r="E39" s="76"/>
-      <c r="F39" s="88"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="89"/>
       <c r="G39" s="19"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="140" t="s">
+      <c r="A40" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="141"/>
-      <c r="C40" s="141"/>
-      <c r="D40" s="141"/>
-      <c r="E40" s="141"/>
-      <c r="F40" s="142"/>
+      <c r="B40" s="142"/>
+      <c r="C40" s="142"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="142"/>
+      <c r="F40" s="143"/>
       <c r="G40" s="19"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="143" t="s">
+      <c r="A41" s="144" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="145" t="s">
+      <c r="B41" s="97"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="146" t="s">
         <v>116</v>
       </c>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="79"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="80"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34720,8 +34720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y997"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34735,84 +34735,84 @@
   <sheetData>
     <row r="1" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="58"/>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="153"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="158"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="154"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="159"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
     </row>
     <row r="2" spans="1:25" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="58"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="156"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="157"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="160" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="87"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="161" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="88"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="89"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="52"/>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="79" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="79"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
@@ -34829,18 +34829,18 @@
     </row>
     <row r="7" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="60"/>
-      <c r="B7" s="161" t="s">
+      <c r="B7" s="162" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="88"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="89"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -34878,7 +34878,7 @@
         <v>122</v>
       </c>
       <c r="C10" s="61" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -34919,14 +34919,14 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
-      <c r="B13" s="129" t="s">
-        <v>159</v>
+      <c r="B13" s="130" t="s">
+        <v>161</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -34934,14 +34934,14 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
-      <c r="B14" s="120" t="s">
-        <v>161</v>
+      <c r="B14" s="122" t="s">
+        <v>160</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -34949,12 +34949,12 @@
     </row>
     <row r="15" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -34990,113 +34990,113 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="53"/>
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="111" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="109" t="s">
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="163"/>
+      <c r="F18" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="93"/>
-      <c r="H18" s="109" t="s">
+      <c r="G18" s="94"/>
+      <c r="H18" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="93"/>
-      <c r="J18" s="109" t="s">
+      <c r="I18" s="94"/>
+      <c r="J18" s="111" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="93"/>
+      <c r="K18" s="94"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="148" t="s">
+      <c r="B19" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="109">
-        <v>101.55</v>
+      <c r="C19" s="172"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="111">
+        <v>83</v>
       </c>
-      <c r="G19" s="93"/>
-      <c r="H19" s="165">
-        <v>5149.95</v>
+      <c r="G19" s="94"/>
+      <c r="H19" s="166">
+        <v>5847.2</v>
       </c>
-      <c r="I19" s="93"/>
-      <c r="J19" s="169">
+      <c r="I19" s="94"/>
+      <c r="J19" s="170">
         <f>F19*H19</f>
-        <v>522977.42249999999</v>
+        <v>485317.6</v>
       </c>
-      <c r="K19" s="93"/>
+      <c r="K19" s="94"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="52"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="175" t="s">
+      <c r="B20" s="100"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="176" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="176"/>
-      <c r="J20" s="173">
+      <c r="I20" s="177"/>
+      <c r="J20" s="174">
         <f>J19*0.001</f>
-        <v>522.97742249999999</v>
+        <v>485.31759999999997</v>
       </c>
-      <c r="K20" s="174"/>
+      <c r="K20" s="175"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
-      <c r="B21" s="145"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
       <c r="F21" s="33"/>
       <c r="G21" s="63"/>
-      <c r="H21" s="178" t="s">
+      <c r="H21" s="179" t="s">
         <v>106</v>
       </c>
-      <c r="I21" s="179"/>
-      <c r="J21" s="163">
+      <c r="I21" s="180"/>
+      <c r="J21" s="164">
         <f>SUM(J19:K20)</f>
-        <v>523500.39992249996</v>
+        <v>485802.91759999999</v>
       </c>
-      <c r="K21" s="164"/>
+      <c r="K21" s="165"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="52"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="88"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="89"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53"/>
-      <c r="B23" s="167" t="s">
+      <c r="B23" s="168" t="s">
         <v>130</v>
       </c>
-      <c r="C23" s="92"/>
+      <c r="C23" s="93"/>
       <c r="D23" s="47"/>
       <c r="E23" s="47"/>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
-      <c r="J23" s="168">
+      <c r="J23" s="169">
         <f>J21</f>
-        <v>523500.39992249996</v>
+        <v>485802.91759999999</v>
       </c>
-      <c r="K23" s="93"/>
+      <c r="K23" s="94"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
@@ -35113,10 +35113,10 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="64"/>
-      <c r="B25" s="177" t="s">
+      <c r="B25" s="178" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="76"/>
+      <c r="C25" s="77"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -35269,14 +35269,14 @@
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="65"/>
-      <c r="B35" s="135" t="s">
+      <c r="B35" s="136" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -35284,14 +35284,14 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="65"/>
-      <c r="B36" s="135" t="s">
+      <c r="B36" s="136" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
